--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1763091.34246096</v>
+        <v>1838621.012125766</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.6536463267108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>131.3860283451312</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>73.05383668378903</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>77.0073852231173</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>131.3860283451312</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.4923106593519</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>120.4120358099645</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>216.6993815150878</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>247.8369814124432</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>270.7773459850746</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>135.1787052649172</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>44.82579829756118</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>104.6354350586182</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>168.4262814687307</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>29.38919641506293</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>213.3219358494678</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4898845065132</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>161.2308509607506</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>33.32815808118189</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.97444673954966</v>
+        <v>4.012178247056795</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>50.45300511654406</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>57.64843562452401</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>29.18937547121108</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>188.4590648403943</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>239.1224285232207</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228.2778626358874</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084171</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084171</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="D4" t="n">
-        <v>500.1394333084171</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="E4" t="n">
-        <v>426.3476790823676</v>
+        <v>177.3847438523385</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>177.3847438523385</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>177.3847438523385</v>
       </c>
       <c r="H4" t="n">
         <v>99.5995062532301</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>325.2978374347316</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.680947310029</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.680947310029</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.680947310029</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2398.188774620077</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2045.420119349963</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2045.420119349963</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>175.5713008203286</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1073.534970481817</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1073.534970481817</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>715.2692718750661</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>715.2692718750661</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>304.2833670854586</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1073.534970481817</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C10" t="n">
-        <v>338.4002221349972</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="11">
@@ -5042,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,13 +5077,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562259</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>777.4224042438901</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>629.509310661497</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414372</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5279,16 +5281,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5366,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1328.78871351878</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1039.660074732339</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>784.9755865264517</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W19" t="n">
-        <v>784.9755865264517</v>
+        <v>1158.235100050368</v>
       </c>
       <c r="X19" t="n">
-        <v>784.9755865264517</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.1830073829216</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1283.439567679652</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>994.3109288932102</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>994.3109288932102</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>994.3109288932102</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>3443.999848753676</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>3751.319982033638</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4027.624275985003</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6205,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>988.9950526279305</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>820.0588697000236</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>669.9422302876878</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>522.0291367052947</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>522.0291367052947</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,25 +6463,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>467.9934022109801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>299.0572192830732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>299.0572192830732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>299.0572192830732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>299.0572192830732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>130.8818976028938</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1098.423997082767</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>870.43444618475</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>649.6418670412198</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,49 +6685,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,16 +6767,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4833.607657115756</v>
+        <v>1494.863565257845</v>
       </c>
       <c r="S34" t="n">
-        <v>4633.687647031309</v>
+        <v>1294.943555173397</v>
       </c>
       <c r="T34" t="n">
-        <v>4633.687647031309</v>
+        <v>1071.158139962903</v>
       </c>
       <c r="U34" t="n">
-        <v>4633.687647031309</v>
+        <v>782.0295011764613</v>
       </c>
       <c r="V34" t="n">
-        <v>4379.003158825422</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="W34" t="n">
-        <v>4089.585988788462</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>3861.596437890445</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>3640.803858746915</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6928,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7020,7 +7022,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
         <v>1514.038914395485</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7123,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="38">
@@ -7169,37 +7171,37 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7257,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7393,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,25 +7411,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7491,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7594,7 +7596,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
@@ -7628,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1308.553578799928</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1019.424940013486</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V46" t="n">
-        <v>764.7404518075996</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W46" t="n">
-        <v>475.3232817706389</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X46" t="n">
-        <v>247.3337308726216</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.3337308726216</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9012,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9170,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>288.4091825776733</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>73.53204524670008</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>44.27839330891797</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>53.12127958965854</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>257.1338019215281</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>8.225625208921457</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.34209567542406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>5.262717502626941</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>115.5856702863542</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>82.98990566424314</v>
+        <v>105.952174156736</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>116.0405633468335</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>52.3159167792688</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>192.3581855871782</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>33.08849621799493</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>47.40056981337031</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="11">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117845</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117848</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117846</v>
-      </c>
       <c r="E2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="H2" t="n">
         <v>508337.7776590218</v>
-      </c>
-      <c r="F2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="G2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590215</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590217</v>
@@ -26338,19 +26340,19 @@
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590215</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773395</v>
@@ -26430,19 +26432,19 @@
         <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
@@ -26451,13 +26453,13 @@
         <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,7 +26487,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26496,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322498.4937232975</v>
+        <v>-322498.4937232976</v>
       </c>
       <c r="C6" t="n">
-        <v>267469.3854912474</v>
+        <v>267469.3854912472</v>
       </c>
       <c r="D6" t="n">
         <v>267469.3854912473</v>
       </c>
       <c r="E6" t="n">
-        <v>-145242.0682843249</v>
+        <v>-145242.068284325</v>
       </c>
       <c r="F6" t="n">
-        <v>379917.9681925708</v>
+        <v>379917.9681925711</v>
       </c>
       <c r="G6" t="n">
-        <v>379917.9681925708</v>
+        <v>379917.9681925711</v>
       </c>
       <c r="H6" t="n">
-        <v>379917.968192571</v>
+        <v>379917.9681925713</v>
       </c>
       <c r="I6" t="n">
         <v>379917.9681925711</v>
@@ -26546,19 +26548,19 @@
         <v>203494.7489999781</v>
       </c>
       <c r="K6" t="n">
-        <v>379917.9681925712</v>
+        <v>379917.9681925713</v>
       </c>
       <c r="L6" t="n">
         <v>379917.9681925711</v>
       </c>
       <c r="M6" t="n">
-        <v>245116.9529587338</v>
+        <v>245116.952958734</v>
       </c>
       <c r="N6" t="n">
         <v>379917.9681925711</v>
       </c>
       <c r="O6" t="n">
-        <v>379917.968192571</v>
+        <v>379917.9681925712</v>
       </c>
       <c r="P6" t="n">
         <v>379917.968192571</v>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26755,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26762,19 +26764,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.08019533676975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>223.2970132755517</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>73.38012596278014</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>79.16350361867785</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>233.8868634258763</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>86.25994781078305</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>26.02192683660464</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>165.9471886083518</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>78.46362273233837</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>13.43676775329513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>122.4840039614897</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35732,7 +35734,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35890,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>420.3639292382666</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>537.6668875336976</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>280.6254601782248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1838621.012125766</v>
+        <v>1831603.997234054</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>131.3860283451312</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>84.65050398557305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>77.0073852231173</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>131.3860283451312</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>161.5519252761216</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>216.6993815150878</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>247.8369814124432</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>111.6342358707622</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>44.82579829756118</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>130.9576264872275</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>195.8155841663235</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>99.20903648318865</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>29.38919641506293</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>116.1580367970459</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>18.60826027245626</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>161.2308509607506</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>141.2552209831413</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.012178247056795</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>137.93704299063</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>8.070639042240128</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50.45300511654406</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.64843562452401</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>196.309213578153</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>239.1224285232207</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1882.054803223514</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1882.054803223514</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2380.437354281499</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2126.67556891959</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.654643287636</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.2978374347316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>325.2978374347316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>325.2978374347316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>177.3847438523385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>177.3847438523385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>177.3847438523385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347316</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347316</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>325.2978374347316</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y4" t="n">
-        <v>325.2978374347316</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1882.054803223514</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.654643287636</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1073.534970481817</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C8" t="n">
-        <v>1073.534970481817</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>715.2692718750661</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E8" t="n">
-        <v>715.2692718750661</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>304.2833670854586</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2353.181059447974</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2353.181059447974</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2353.181059447974</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.534970481817</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610024</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>438.9553738610024</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>438.9553738610024</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F10" t="n">
-        <v>438.9553738610024</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5083,7 +5083,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>526.8054782054322</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>379.9155307075218</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X13" t="n">
-        <v>244.1070389581962</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>674.7185717878253</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,16 +5281,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5366,13 +5366,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>757.4105722479408</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>757.4105722479408</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>607.293932835605</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>459.3808392532119</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>459.3808392532119</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>1159.851616221711</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>939.0590370781805</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.8045051785809</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C19" t="n">
-        <v>358.8683222506741</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>1158.235100050368</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="X19" t="n">
-        <v>930.2455491523508</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.4529700088207</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,16 +5928,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,43 +5974,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>3443.999848753676</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>3751.319982033638</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N24" t="n">
-        <v>4081.182609697671</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>4360.722674916368</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>1009.579090436494</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,10 +6229,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6311,22 +6311,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>820.0588697000236</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>669.9422302876878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>522.0291367052947</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>522.0291367052947</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.787631771461</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.787631771461</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,25 +6463,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6548,22 +6548,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1356.23422916079</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6785,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1494.863565257845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1294.943555173397</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1071.158139962903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>782.0295011764613</v>
+        <v>1359.585924102721</v>
       </c>
       <c r="V34" t="n">
-        <v>527.3450129705744</v>
+        <v>1104.901435896834</v>
       </c>
       <c r="W34" t="n">
-        <v>527.3450129705744</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705744</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705744</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.0685056491545</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1323227212476</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1323227212476</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1323227212476</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1323227212476</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,28 +7195,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.685527502828</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.685527502828</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.685527502828</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1440.685527502828</v>
+        <v>1300.624135630475</v>
       </c>
       <c r="V40" t="n">
-        <v>1186.001039296941</v>
+        <v>1045.939647424588</v>
       </c>
       <c r="W40" t="n">
-        <v>896.58386925998</v>
+        <v>1045.939647424588</v>
       </c>
       <c r="X40" t="n">
-        <v>668.5943183619627</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184325</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7639,7 +7639,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822458</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>909.3712637033469</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>667.8334571142351</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>667.8334571142351</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>87.16935584025367</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>277.6717966208055</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776733</v>
+        <v>277.6717966208055</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>277.6717966208063</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>35.5359419761501</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>29.89407122271365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>67.28453198018893</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>257.1338019215281</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>109.5516185919913</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>161.223719909481</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>5.262717502626941</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>56.66558900046192</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>105.952174156736</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>148.3003094079473</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>159.1761820563877</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>116.0405633468335</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>52.3159167792688</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,13 +25605,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>89.92813882042438</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>47.40056981337031</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.6212501178</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.6212501178</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117848</v>
@@ -26325,13 +26325,13 @@
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="H2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590217</v>
@@ -26340,19 +26340,19 @@
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="L2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="M2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="N2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590215</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773393</v>
       </c>
       <c r="J4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="K4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773396</v>
@@ -26459,7 +26459,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322498.4937232976</v>
+        <v>-322498.4937232975</v>
       </c>
       <c r="C6" t="n">
         <v>267469.3854912472</v>
@@ -26530,40 +26530,40 @@
         <v>267469.3854912473</v>
       </c>
       <c r="E6" t="n">
-        <v>-145242.068284325</v>
+        <v>-146216.6595440469</v>
       </c>
       <c r="F6" t="n">
-        <v>379917.9681925711</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="G6" t="n">
-        <v>379917.9681925711</v>
+        <v>378943.3769328491</v>
       </c>
       <c r="H6" t="n">
-        <v>379917.9681925713</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="I6" t="n">
-        <v>379917.9681925711</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="J6" t="n">
-        <v>203494.7489999781</v>
+        <v>202520.1577402566</v>
       </c>
       <c r="K6" t="n">
-        <v>379917.9681925713</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="L6" t="n">
-        <v>379917.9681925711</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="M6" t="n">
-        <v>245116.952958734</v>
+        <v>244142.3616990122</v>
       </c>
       <c r="N6" t="n">
-        <v>379917.9681925711</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="O6" t="n">
-        <v>379917.9681925712</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="P6" t="n">
-        <v>379917.968192571</v>
+        <v>378943.3769328493</v>
       </c>
     </row>
   </sheetData>
@@ -26737,40 +26737,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>223.2970132755517</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>131.7978163720848</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>79.16350361867785</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.98780970275089</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>233.8868634258763</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>12.86378753284993</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>35.43826180874018</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>165.9471886083518</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>104.8140844868956</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>122.4840039614897</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>420.3639292382666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768299</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336976</v>
+        <v>526.9295015768299</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>588.0961736712726</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36697,7 +36697,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1831603.997234054</v>
+        <v>1836543.260083086</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>191.6468735142586</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,13 +712,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>84.65050398557305</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.5968436493439</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>22.31124795984768</v>
       </c>
       <c r="S5" t="n">
-        <v>161.5519252761216</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>55.90301252244944</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>111.6342358707622</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>168.4813780479772</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>26.26583888007718</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9576264872275</v>
+        <v>8.525532102719195</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.20903648318865</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>10.00886850234444</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.3125470028955</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>116.1580367970459</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002183</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.60826027245626</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>176.8688121773847</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>141.2552209831413</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>79.47420870022064</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>115.9747399561817</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>137.93704299063</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>8.070639042240128</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>76.27978370493953</v>
       </c>
       <c r="U40" t="n">
-        <v>196.309213578153</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="44">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.995544662309</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>818.9554664465411</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>400.991658344728</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2380.437354281499</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2126.67556891959</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1795.61268157602</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1795.61268157602</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.14692331494</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="S5" t="n">
-        <v>2533.965328113049</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="T5" t="n">
-        <v>2533.965328113049</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="U5" t="n">
-        <v>2280.203542751141</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V5" t="n">
-        <v>1949.14065540757</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W5" t="n">
-        <v>1596.372000137456</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X5" t="n">
-        <v>1222.906241876376</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1222.906241876376</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.680947310029</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036444</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.181059447974</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.181059447974</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.181059447974</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.41240417786</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.94664591678</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.94664591678</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799423</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>249.4739324659484</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>80.47413220428078</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>80.47413220428078</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>80.47413220428078</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036444</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5129,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5138,10 +5138,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.7185717878253</v>
+        <v>105.8287400488911</v>
       </c>
       <c r="C13" t="n">
-        <v>674.7185717878253</v>
+        <v>105.8287400488911</v>
       </c>
       <c r="D13" t="n">
-        <v>674.7185717878253</v>
+        <v>105.8287400488911</v>
       </c>
       <c r="E13" t="n">
-        <v>526.8054782054322</v>
+        <v>105.8287400488911</v>
       </c>
       <c r="F13" t="n">
-        <v>379.9155307075218</v>
+        <v>105.8287400488911</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>964.135741824786</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W13" t="n">
-        <v>674.7185717878253</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X13" t="n">
-        <v>674.7185717878253</v>
+        <v>326.6213191924212</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.7185717878253</v>
+        <v>105.8287400488911</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5269,22 +5269,22 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5375,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>757.4105722479408</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C16" t="n">
-        <v>757.4105722479408</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>607.293932835605</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>459.3808392532119</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>459.3808392532119</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1488.806302373716</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="X16" t="n">
-        <v>1159.851616221711</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y16" t="n">
-        <v>939.0590370781805</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.0663679705859</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>562.0930141766539</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706323</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X19" t="n">
-        <v>414.0663679705859</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y19" t="n">
-        <v>414.0663679705859</v>
+        <v>731.0291971045608</v>
       </c>
     </row>
     <row r="20">
@@ -5740,49 +5740,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018223</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298184</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962217</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6056,31 +6056,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018223</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298184</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962217</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
         <v>2112.811595180915</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>990.7828679390639</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>821.846685011157</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>671.7300455988212</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>523.8169520164281</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>1009.579090436494</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>1009.579090436494</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,16 +6211,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6314,13 +6314,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6411,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6451,10 +6451,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6490,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1356.23422916079</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1132.448813950296</v>
+        <v>1418.639292072831</v>
       </c>
       <c r="U31" t="n">
-        <v>1132.448813950296</v>
+        <v>1418.639292072831</v>
       </c>
       <c r="V31" t="n">
-        <v>877.7643257444088</v>
+        <v>1163.954803866944</v>
       </c>
       <c r="W31" t="n">
-        <v>877.7643257444088</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X31" t="n">
-        <v>649.7747748463914</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y31" t="n">
-        <v>428.9821957028613</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6706,7 +6706,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.0432218861031</v>
+        <v>828.2191568567731</v>
       </c>
       <c r="C34" t="n">
-        <v>244.1070389581962</v>
+        <v>659.2829739288662</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>509.1663345165305</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>361.2532409341374</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>214.363293436227</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1359.585924102721</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1104.901435896834</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W34" t="n">
-        <v>815.4842658598729</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X34" t="n">
-        <v>815.4842658598729</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y34" t="n">
-        <v>594.6916867163428</v>
+        <v>1009.867621687013</v>
       </c>
     </row>
     <row r="35">
@@ -6916,40 +6916,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,43 +7156,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7259,7 +7259,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018224</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M39" t="n">
         <v>1503.408902298185</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.509052552801</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C40" t="n">
-        <v>415.509052552801</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1421.865983987256</v>
       </c>
       <c r="U40" t="n">
-        <v>1300.624135630475</v>
+        <v>1421.865983987256</v>
       </c>
       <c r="V40" t="n">
-        <v>1045.939647424588</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="W40" t="n">
-        <v>1045.939647424588</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X40" t="n">
-        <v>817.9500965265709</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.1575173830407</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1375.025382843599</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1151.239967633105</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>862.1113288466635</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>607.4268406407766</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>318.0096706038159</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208055</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208055</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>277.6717966208063</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10354,13 +10354,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208069</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>35.5359419761501</v>
+        <v>157.9680363606584</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>67.28453198018893</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.95548390144836</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0.3029260153168423</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>109.5516185919913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.223719909481</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>50.96659166316</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>56.66558900046192</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>142.0733523581686</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>50.51882850719585</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>148.3003094079473</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>159.1761820563877</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,16 +25602,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>145.2677773534497</v>
       </c>
       <c r="U40" t="n">
-        <v>89.92813882042438</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>75.26883114644322</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.142098661519</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895908.6212501178</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895908.6212501178</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="16">
@@ -26316,22 +26316,22 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="F2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590215</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590217</v>
@@ -26340,16 +26340,16 @@
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590216</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="F4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="H4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
@@ -26447,16 +26447,16 @@
         <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773396</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-322498.4937232975</v>
       </c>
       <c r="C6" t="n">
-        <v>267469.3854912472</v>
+        <v>267469.3854912471</v>
       </c>
       <c r="D6" t="n">
-        <v>267469.3854912473</v>
+        <v>267469.3854912471</v>
       </c>
       <c r="E6" t="n">
-        <v>-146216.6595440469</v>
+        <v>-145339.5274102971</v>
       </c>
       <c r="F6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.5090665988</v>
       </c>
       <c r="G6" t="n">
-        <v>378943.3769328491</v>
+        <v>379820.509066599</v>
       </c>
       <c r="H6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665988</v>
       </c>
       <c r="I6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.509066599</v>
       </c>
       <c r="J6" t="n">
-        <v>202520.1577402566</v>
+        <v>203397.289874006</v>
       </c>
       <c r="K6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="L6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="M6" t="n">
-        <v>244142.3616990122</v>
+        <v>245019.4938327616</v>
       </c>
       <c r="N6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.509066599</v>
       </c>
       <c r="O6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="P6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>132.2758992500985</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>131.7978163720848</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.98780970275089</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>32.16715461496402</v>
       </c>
       <c r="S5" t="n">
-        <v>12.86378753284993</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>196.2346308013786</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>104.8140844868956</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>159.2708804221577</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>18.93412030845983</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768299</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768299</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>588.0961736712726</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37074,13 +37074,13 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,16 +37545,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768312</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
